--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU031-001_InqTransKlaim.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU031-001_InqTransKlaim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868CC1F0-A765-4707-B4ED-F414C4EDC277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2E099-2C43-43FF-81B4-DEC1A7AA31F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,13 +94,13 @@
     <t>DPLKKEU031-001</t>
   </si>
   <si>
-    <t>DISK230100005</t>
-  </si>
-  <si>
     <t>Username : 37841;
 Password : bni1234;
 Role : RL09 - Penyelia Settlement;
-Kode Pembayaran : DISK230100005</t>
+Kode Pembayaran : DISK230300012</t>
+  </si>
+  <si>
+    <t>DISK230300012</t>
   </si>
 </sst>
 </file>
@@ -184,9 +184,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -196,9 +193,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -207,6 +201,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,34 +598,34 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6">
         <v>37841</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -634,18 +634,18 @@
       <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="9"/>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="8"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="11"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="13"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
